--- a/Excel/BulletInfoConfig.xlsx
+++ b/Excel/BulletInfoConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞盒类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColliderArgs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞盒参数 后三位为小数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G7"/>
+  <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -485,81 +509,104 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
